--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>78.0376470588235</v>
+        <v>77.7984210526316</v>
       </c>
       <c r="C166" t="n">
-        <v>72.659744759973</v>
+        <v>72.4370048234811</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>77.7984210526316</v>
+        <v>75.9496551724138</v>
       </c>
       <c r="C166" t="n">
-        <v>72.4370048234811</v>
+        <v>70.3905655891025</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>75.9496551724138</v>
+        <v>74.263950617284</v>
       </c>
       <c r="C166" t="n">
-        <v>70.3905655891025</v>
+        <v>68.7790620636289</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>74.263950617284</v>
+        <v>72.3721</v>
       </c>
       <c r="C166" t="n">
-        <v>68.7790620636289</v>
+        <v>67.054317529616</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>72.3721</v>
+        <v>72.1728571428571</v>
       </c>
       <c r="C166" t="n">
-        <v>67.054317529616</v>
+        <v>66.8451392899436</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>72.1728571428571</v>
+        <v>71.8438888888889</v>
       </c>
       <c r="C166" t="n">
-        <v>66.8451392899436</v>
+        <v>66.5037936888526</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>71.8438888888889</v>
+        <v>71.4874846625767</v>
       </c>
       <c r="C166" t="n">
-        <v>66.5037936888526</v>
+        <v>66.1362851762461</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>71.4874846625767</v>
+        <v>71.0517486338798</v>
       </c>
       <c r="C166" t="n">
-        <v>66.1362851762461</v>
+        <v>65.6901038908463</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>71.0517486338798</v>
+        <v>70.9044041450777</v>
       </c>
       <c r="C166" t="n">
-        <v>65.6901038908463</v>
+        <v>65.5538781826371</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>70.9044041450777</v>
+        <v>70.7430150753769</v>
       </c>
       <c r="C166" t="n">
-        <v>65.5538781826371</v>
+        <v>65.4046677133758</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>70.7430150753769</v>
+        <v>70.557684729064</v>
       </c>
       <c r="C166" t="n">
-        <v>65.4046677133758</v>
+        <v>65.1691252922934</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>70.557684729064</v>
+        <v>70.4044711538462</v>
       </c>
       <c r="C166" t="n">
-        <v>65.1691252922934</v>
+        <v>65.0276127877633</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>70.4044711538462</v>
+        <v>70.2793896713615</v>
       </c>
       <c r="C166" t="n">
-        <v>65.0276127877633</v>
+        <v>64.9120839005118</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>70.2793896713615</v>
+        <v>70.1008675799087</v>
       </c>
       <c r="C166" t="n">
-        <v>64.9120839005118</v>
+        <v>64.7471957159008</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>70.1008675799087</v>
+        <v>69.9673542600897</v>
       </c>
       <c r="C166" t="n">
-        <v>64.7471957159008</v>
+        <v>64.5651594373921</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>69.9673542600897</v>
+        <v>69.8360087719298</v>
       </c>
       <c r="C166" t="n">
-        <v>64.5651594373921</v>
+        <v>64.443955163283</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>69.8360087719298</v>
+        <v>69.7162231759657</v>
       </c>
       <c r="C166" t="n">
-        <v>64.443955163283</v>
+        <v>64.3334182395488</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>69.7162231759657</v>
+        <v>69.5918907563025</v>
       </c>
       <c r="C166" t="n">
-        <v>64.3334182395488</v>
+        <v>64.2186855533743</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>69.5918907563025</v>
+        <v>69.4409053497942</v>
       </c>
       <c r="C166" t="n">
-        <v>64.2186855533743</v>
+        <v>64.0175585822534</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>69.4409053497942</v>
+        <v>69.3660408163265</v>
       </c>
       <c r="C166" t="n">
-        <v>64.0175585822534</v>
+        <v>63.9485409818511</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,10 +2207,10 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>69.3660408163265</v>
+        <v>69.2009561752988</v>
       </c>
       <c r="C166" t="n">
-        <v>63.9485409818511</v>
+        <v>63.7963494799577</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2207,11 +2207,20 @@
         <v>2025</v>
       </c>
       <c r="B166" t="n">
-        <v>69.2009561752988</v>
+        <v>69.1426482213439</v>
       </c>
       <c r="C166" t="n">
-        <v>63.7963494799577</v>
-      </c>
+        <v>63.7425953873329</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B167" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C167"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2218,7 +2218,7 @@
         <v>2026</v>
       </c>
       <c r="B167" t="n">
-        <v>62.49</v>
+        <v>63.1442857142857</v>
       </c>
       <c r="C167"/>
     </row>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2210,7 +2210,7 @@
         <v>69.1426482213439</v>
       </c>
       <c r="C166" t="n">
-        <v>63.7425953873329</v>
+        <v>63.6752449868693</v>
       </c>
     </row>
     <row r="167">
@@ -2218,7 +2218,7 @@
         <v>2026</v>
       </c>
       <c r="B167" t="n">
-        <v>63.1442857142857</v>
+        <v>65.0907692307692</v>
       </c>
       <c r="C167"/>
     </row>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2218,7 +2218,7 @@
         <v>2026</v>
       </c>
       <c r="B167" t="n">
-        <v>65.0907692307692</v>
+        <v>65.5423529411765</v>
       </c>
       <c r="C167"/>
     </row>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2218,7 +2218,7 @@
         <v>2026</v>
       </c>
       <c r="B167" t="n">
-        <v>65.5423529411765</v>
+        <v>66.6531818181818</v>
       </c>
       <c r="C167"/>
     </row>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2218,7 +2218,7 @@
         <v>2026</v>
       </c>
       <c r="B167" t="n">
-        <v>66.6531818181818</v>
+        <v>67.3718518518519</v>
       </c>
       <c r="C167"/>
     </row>

--- a/Data/C03 Figures.xlsx
+++ b/Data/C03 Figures.xlsx
@@ -2188,7 +2188,7 @@
         <v>82.4938645418327</v>
       </c>
       <c r="C164" t="n">
-        <v>79.4085502446448</v>
+        <v>79.4001258281113</v>
       </c>
     </row>
     <row r="165">
@@ -2199,7 +2199,7 @@
         <v>80.5218503937008</v>
       </c>
       <c r="C165" t="n">
-        <v>75.6952116564968</v>
+        <v>75.6991334849853</v>
       </c>
     </row>
     <row r="166">
@@ -2210,7 +2210,7 @@
         <v>69.1426482213439</v>
       </c>
       <c r="C166" t="n">
-        <v>63.6752449868693</v>
+        <v>63.6784769046942</v>
       </c>
     </row>
     <row r="167">
@@ -2218,9 +2218,11 @@
         <v>2026</v>
       </c>
       <c r="B167" t="n">
-        <v>67.3718518518519</v>
-      </c>
-      <c r="C167"/>
+        <v>67.9366666666667</v>
+      </c>
+      <c r="C167" t="n">
+        <v>61.8086049271293</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
